--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Plxnc1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.9794300184762</v>
+        <v>30.30196633333334</v>
       </c>
       <c r="H2">
-        <v>24.9794300184762</v>
+        <v>90.90589900000001</v>
       </c>
       <c r="I2">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924486</v>
       </c>
       <c r="J2">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924485</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.262866197165712</v>
+        <v>0.3697093333333334</v>
       </c>
       <c r="N2">
-        <v>0.262866197165712</v>
+        <v>1.109128</v>
       </c>
       <c r="O2">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="P2">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="Q2">
-        <v>6.566247776323871</v>
+        <v>11.20291977178578</v>
       </c>
       <c r="R2">
-        <v>6.566247776323871</v>
+        <v>100.826277946072</v>
       </c>
       <c r="S2">
-        <v>0.001832714408962805</v>
+        <v>0.002596158530330362</v>
       </c>
       <c r="T2">
-        <v>0.001832714408962805</v>
+        <v>0.002596158530330361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.9794300184762</v>
+        <v>30.30196633333334</v>
       </c>
       <c r="H3">
-        <v>24.9794300184762</v>
+        <v>90.90589900000001</v>
       </c>
       <c r="I3">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924486</v>
       </c>
       <c r="J3">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924485</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.42313606799961</v>
+        <v>1.429428</v>
       </c>
       <c r="N3">
-        <v>1.42313606799961</v>
+        <v>4.288284</v>
       </c>
       <c r="O3">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="P3">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="Q3">
-        <v>35.54912781736564</v>
+        <v>43.314479131924</v>
       </c>
       <c r="R3">
-        <v>35.54912781736564</v>
+        <v>389.830312187316</v>
       </c>
       <c r="S3">
-        <v>0.009922165747668698</v>
+        <v>0.01003767381860272</v>
       </c>
       <c r="T3">
-        <v>0.009922165747668698</v>
+        <v>0.01003767381860272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.9794300184762</v>
+        <v>30.30196633333334</v>
       </c>
       <c r="H4">
-        <v>24.9794300184762</v>
+        <v>90.90589900000001</v>
       </c>
       <c r="I4">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924486</v>
       </c>
       <c r="J4">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924485</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.5233599269981</v>
+        <v>24.96348666666667</v>
       </c>
       <c r="N4">
-        <v>23.5233599269981</v>
+        <v>74.89046</v>
       </c>
       <c r="O4">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="P4">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="Q4">
-        <v>587.6001230958765</v>
+        <v>756.4427325359491</v>
       </c>
       <c r="R4">
-        <v>587.6001230958765</v>
+        <v>6807.984592823541</v>
       </c>
       <c r="S4">
-        <v>0.1640058750431494</v>
+        <v>0.1752976271173072</v>
       </c>
       <c r="T4">
-        <v>0.1640058750431494</v>
+        <v>0.1752976271173072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.9794300184762</v>
+        <v>30.30196633333334</v>
       </c>
       <c r="H5">
-        <v>24.9794300184762</v>
+        <v>90.90589900000001</v>
       </c>
       <c r="I5">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924486</v>
       </c>
       <c r="J5">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924485</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.7266565056829</v>
+        <v>33.981804</v>
       </c>
       <c r="N5">
-        <v>33.7266565056829</v>
+        <v>101.945412</v>
       </c>
       <c r="O5">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027565</v>
       </c>
       <c r="P5">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027564</v>
       </c>
       <c r="Q5">
-        <v>842.4726559408909</v>
+        <v>1029.715480753932</v>
       </c>
       <c r="R5">
-        <v>842.4726559408909</v>
+        <v>9267.439326785388</v>
       </c>
       <c r="S5">
-        <v>0.2351436967193542</v>
+        <v>0.2386257050510339</v>
       </c>
       <c r="T5">
-        <v>0.2351436967193542</v>
+        <v>0.2386257050510339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.9794300184762</v>
+        <v>30.30196633333334</v>
       </c>
       <c r="H6">
-        <v>24.9794300184762</v>
+        <v>90.90589900000001</v>
       </c>
       <c r="I6">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924486</v>
       </c>
       <c r="J6">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.2899553247551</v>
+        <v>48.95513033333333</v>
       </c>
       <c r="N6">
-        <v>48.2899553247551</v>
+        <v>146.865391</v>
       </c>
       <c r="O6">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="P6">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="Q6">
-        <v>1206.255559630062</v>
+        <v>1483.436711204612</v>
       </c>
       <c r="R6">
-        <v>1206.255559630062</v>
+        <v>13350.93040084151</v>
       </c>
       <c r="S6">
-        <v>0.3366796411485989</v>
+        <v>0.3437708160419301</v>
       </c>
       <c r="T6">
-        <v>0.3366796411485989</v>
+        <v>0.34377081604193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.9794300184762</v>
+        <v>30.30196633333334</v>
       </c>
       <c r="H7">
-        <v>24.9794300184762</v>
+        <v>90.90589900000001</v>
       </c>
       <c r="I7">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924486</v>
       </c>
       <c r="J7">
-        <v>0.7523873101588943</v>
+        <v>0.7759129089924485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.688925347419073</v>
+        <v>0.7953290000000001</v>
       </c>
       <c r="N7">
-        <v>0.688925347419073</v>
+        <v>2.385987</v>
       </c>
       <c r="O7">
-        <v>0.006383968770214701</v>
+        <v>0.007197880546279998</v>
       </c>
       <c r="P7">
-        <v>0.006383968770214701</v>
+        <v>0.007197880546279996</v>
       </c>
       <c r="Q7">
-        <v>17.20896250380914</v>
+        <v>24.10003258192367</v>
       </c>
       <c r="R7">
-        <v>17.20896250380914</v>
+        <v>216.900293237313</v>
       </c>
       <c r="S7">
-        <v>0.004803217091160223</v>
+        <v>0.005584928433244268</v>
       </c>
       <c r="T7">
-        <v>0.004803217091160223</v>
+        <v>0.005584928433244266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.44300738344755</v>
+        <v>3.511211333333333</v>
       </c>
       <c r="H8">
-        <v>3.44300738344755</v>
+        <v>10.533634</v>
       </c>
       <c r="I8">
-        <v>0.1037043304099915</v>
+        <v>0.08990816535681322</v>
       </c>
       <c r="J8">
-        <v>0.1037043304099915</v>
+        <v>0.0899081653568132</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.262866197165712</v>
+        <v>0.3697093333333334</v>
       </c>
       <c r="N8">
-        <v>0.262866197165712</v>
+        <v>1.109128</v>
       </c>
       <c r="O8">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="P8">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="Q8">
-        <v>0.9050502577003259</v>
+        <v>1.298127601239111</v>
       </c>
       <c r="R8">
-        <v>0.9050502577003259</v>
+        <v>11.683148411152</v>
       </c>
       <c r="S8">
-        <v>0.0002526098168429936</v>
+        <v>0.0003008273837595284</v>
       </c>
       <c r="T8">
-        <v>0.0002526098168429936</v>
+        <v>0.0003008273837595283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.44300738344755</v>
+        <v>3.511211333333333</v>
       </c>
       <c r="H9">
-        <v>3.44300738344755</v>
+        <v>10.533634</v>
       </c>
       <c r="I9">
-        <v>0.1037043304099915</v>
+        <v>0.08990816535681322</v>
       </c>
       <c r="J9">
-        <v>0.1037043304099915</v>
+        <v>0.0899081653568132</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.42313606799961</v>
+        <v>1.429428</v>
       </c>
       <c r="N9">
-        <v>1.42313606799961</v>
+        <v>4.288284</v>
       </c>
       <c r="O9">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="P9">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="Q9">
-        <v>4.899867989773171</v>
+        <v>5.019023793783999</v>
       </c>
       <c r="R9">
-        <v>4.899867989773171</v>
+        <v>45.17121414405599</v>
       </c>
       <c r="S9">
-        <v>0.001367608864723714</v>
+        <v>0.001163105842191203</v>
       </c>
       <c r="T9">
-        <v>0.001367608864723714</v>
+        <v>0.001163105842191203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.44300738344755</v>
+        <v>3.511211333333333</v>
       </c>
       <c r="H10">
-        <v>3.44300738344755</v>
+        <v>10.533634</v>
       </c>
       <c r="I10">
-        <v>0.1037043304099915</v>
+        <v>0.08990816535681322</v>
       </c>
       <c r="J10">
-        <v>0.1037043304099915</v>
+        <v>0.0899081653568132</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.5233599269981</v>
+        <v>24.96348666666667</v>
       </c>
       <c r="N10">
-        <v>23.5233599269981</v>
+        <v>74.89046</v>
       </c>
       <c r="O10">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="P10">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="Q10">
-        <v>80.99110191214868</v>
+        <v>87.65207730351555</v>
       </c>
       <c r="R10">
-        <v>80.99110191214868</v>
+        <v>788.8686957316399</v>
       </c>
       <c r="S10">
-        <v>0.02260553736753302</v>
+        <v>0.02031244468658947</v>
       </c>
       <c r="T10">
-        <v>0.02260553736753302</v>
+        <v>0.02031244468658946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.44300738344755</v>
+        <v>3.511211333333333</v>
       </c>
       <c r="H11">
-        <v>3.44300738344755</v>
+        <v>10.533634</v>
       </c>
       <c r="I11">
-        <v>0.1037043304099915</v>
+        <v>0.08990816535681322</v>
       </c>
       <c r="J11">
-        <v>0.1037043304099915</v>
+        <v>0.0899081653568132</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.7266565056829</v>
+        <v>33.981804</v>
       </c>
       <c r="N11">
-        <v>33.7266565056829</v>
+        <v>101.945412</v>
       </c>
       <c r="O11">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027565</v>
       </c>
       <c r="P11">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027564</v>
       </c>
       <c r="Q11">
-        <v>116.1211273680656</v>
+        <v>119.317295331912</v>
       </c>
       <c r="R11">
-        <v>116.1211273680656</v>
+        <v>1073.855657987208</v>
       </c>
       <c r="S11">
-        <v>0.03241072688116026</v>
+        <v>0.02765052507758097</v>
       </c>
       <c r="T11">
-        <v>0.03241072688116026</v>
+        <v>0.02765052507758096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.44300738344755</v>
+        <v>3.511211333333333</v>
       </c>
       <c r="H12">
-        <v>3.44300738344755</v>
+        <v>10.533634</v>
       </c>
       <c r="I12">
-        <v>0.1037043304099915</v>
+        <v>0.08990816535681322</v>
       </c>
       <c r="J12">
-        <v>0.1037043304099915</v>
+        <v>0.0899081653568132</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.2899553247551</v>
+        <v>48.95513033333333</v>
       </c>
       <c r="N12">
-        <v>48.2899553247551</v>
+        <v>146.865391</v>
       </c>
       <c r="O12">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="P12">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="Q12">
-        <v>166.2626727294841</v>
+        <v>171.8918084512104</v>
       </c>
       <c r="R12">
-        <v>166.2626727294841</v>
+        <v>1547.026276060894</v>
       </c>
       <c r="S12">
-        <v>0.04640580227305806</v>
+        <v>0.03983411413231852</v>
       </c>
       <c r="T12">
-        <v>0.04640580227305806</v>
+        <v>0.03983411413231851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.44300738344755</v>
+        <v>3.511211333333333</v>
       </c>
       <c r="H13">
-        <v>3.44300738344755</v>
+        <v>10.533634</v>
       </c>
       <c r="I13">
-        <v>0.1037043304099915</v>
+        <v>0.08990816535681322</v>
       </c>
       <c r="J13">
-        <v>0.1037043304099915</v>
+        <v>0.0899081653568132</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.688925347419073</v>
+        <v>0.7953290000000001</v>
       </c>
       <c r="N13">
-        <v>0.688925347419073</v>
+        <v>2.385987</v>
       </c>
       <c r="O13">
-        <v>0.006383968770214701</v>
+        <v>0.007197880546279998</v>
       </c>
       <c r="P13">
-        <v>0.006383968770214701</v>
+        <v>0.007197880546279996</v>
       </c>
       <c r="Q13">
-        <v>2.371975057808037</v>
+        <v>2.792568198528667</v>
       </c>
       <c r="R13">
-        <v>2.371975057808037</v>
+        <v>25.133113786758</v>
       </c>
       <c r="S13">
-        <v>0.0006620452066734122</v>
+        <v>0.0006471482343735311</v>
       </c>
       <c r="T13">
-        <v>0.0006620452066734122</v>
+        <v>0.0006471482343735308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.40924447061267</v>
+        <v>0.08629433333333332</v>
       </c>
       <c r="H14">
-        <v>2.40924447061267</v>
+        <v>0.258883</v>
       </c>
       <c r="I14">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="J14">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.262866197165712</v>
+        <v>0.3697093333333334</v>
       </c>
       <c r="N14">
-        <v>0.262866197165712</v>
+        <v>1.109128</v>
       </c>
       <c r="O14">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="P14">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="Q14">
-        <v>0.6333089320324715</v>
+        <v>0.03190382044711111</v>
       </c>
       <c r="R14">
-        <v>0.6333089320324715</v>
+        <v>0.287134384024</v>
       </c>
       <c r="S14">
-        <v>0.0001767637233011275</v>
+        <v>7.393373985636673E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001767637233011275</v>
+        <v>7.393373985636673E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.40924447061267</v>
+        <v>0.08629433333333332</v>
       </c>
       <c r="H15">
-        <v>2.40924447061267</v>
+        <v>0.258883</v>
       </c>
       <c r="I15">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="J15">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.42313606799961</v>
+        <v>1.429428</v>
       </c>
       <c r="N15">
-        <v>1.42313606799961</v>
+        <v>4.288284</v>
       </c>
       <c r="O15">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="P15">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="Q15">
-        <v>3.428682702757517</v>
+        <v>0.123351536308</v>
       </c>
       <c r="R15">
-        <v>3.428682702757517</v>
+        <v>1.110163826772</v>
       </c>
       <c r="S15">
-        <v>0.0009569843245579184</v>
+        <v>2.8585417885602E-05</v>
       </c>
       <c r="T15">
-        <v>0.0009569843245579184</v>
+        <v>2.8585417885602E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.40924447061267</v>
+        <v>0.08629433333333332</v>
       </c>
       <c r="H16">
-        <v>2.40924447061267</v>
+        <v>0.258883</v>
       </c>
       <c r="I16">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="J16">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.5233599269981</v>
+        <v>24.96348666666667</v>
       </c>
       <c r="N16">
-        <v>23.5233599269981</v>
+        <v>74.89046</v>
       </c>
       <c r="O16">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="P16">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="Q16">
-        <v>56.67352483435183</v>
+        <v>2.154207439575555</v>
       </c>
       <c r="R16">
-        <v>56.67352483435183</v>
+        <v>19.38786695618</v>
       </c>
       <c r="S16">
-        <v>0.01581822512777271</v>
+        <v>0.0004992148595440416</v>
       </c>
       <c r="T16">
-        <v>0.01581822512777271</v>
+        <v>0.0004992148595440416</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.40924447061267</v>
+        <v>0.08629433333333332</v>
       </c>
       <c r="H17">
-        <v>2.40924447061267</v>
+        <v>0.258883</v>
       </c>
       <c r="I17">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="J17">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.7266565056829</v>
+        <v>33.981804</v>
       </c>
       <c r="N17">
-        <v>33.7266565056829</v>
+        <v>101.945412</v>
       </c>
       <c r="O17">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027565</v>
       </c>
       <c r="P17">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027564</v>
       </c>
       <c r="Q17">
-        <v>81.25576069856935</v>
+        <v>2.932437121644</v>
       </c>
       <c r="R17">
-        <v>81.25576069856935</v>
+        <v>26.391934094796</v>
       </c>
       <c r="S17">
-        <v>0.02267940664384645</v>
+        <v>0.0006795613824876955</v>
       </c>
       <c r="T17">
-        <v>0.02267940664384645</v>
+        <v>0.0006795613824876953</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.40924447061267</v>
+        <v>0.08629433333333332</v>
       </c>
       <c r="H18">
-        <v>2.40924447061267</v>
+        <v>0.258883</v>
       </c>
       <c r="I18">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="J18">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.2899553247551</v>
+        <v>48.95513033333333</v>
       </c>
       <c r="N18">
-        <v>48.2899553247551</v>
+        <v>146.865391</v>
       </c>
       <c r="O18">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="P18">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="Q18">
-        <v>116.3423078522991</v>
+        <v>4.224550335361443</v>
       </c>
       <c r="R18">
-        <v>116.3423078522991</v>
+        <v>38.020953018253</v>
       </c>
       <c r="S18">
-        <v>0.0324724608690091</v>
+        <v>0.0009789949953564947</v>
       </c>
       <c r="T18">
-        <v>0.0324724608690091</v>
+        <v>0.0009789949953564945</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.40924447061267</v>
+        <v>0.08629433333333332</v>
       </c>
       <c r="H19">
-        <v>2.40924447061267</v>
+        <v>0.258883</v>
       </c>
       <c r="I19">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="J19">
-        <v>0.07256710683224923</v>
+        <v>0.002209654860997437</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.688925347419073</v>
+        <v>0.7953290000000001</v>
       </c>
       <c r="N19">
-        <v>0.688925347419073</v>
+        <v>2.385987</v>
       </c>
       <c r="O19">
-        <v>0.006383968770214701</v>
+        <v>0.007197880546279998</v>
       </c>
       <c r="P19">
-        <v>0.006383968770214701</v>
+        <v>0.007197880546279996</v>
       </c>
       <c r="Q19">
-        <v>1.659789583934314</v>
+        <v>0.06863238583566666</v>
       </c>
       <c r="R19">
-        <v>1.659789583934314</v>
+        <v>0.617691472521</v>
       </c>
       <c r="S19">
-        <v>0.000463266143761913</v>
+        <v>1.590483173796648E-05</v>
       </c>
       <c r="T19">
-        <v>0.000463266143761913</v>
+        <v>1.590483173796648E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.36854583093305</v>
+        <v>0.2388223333333333</v>
       </c>
       <c r="H20">
-        <v>2.36854583093305</v>
+        <v>0.716467</v>
       </c>
       <c r="I20">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808024</v>
       </c>
       <c r="J20">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808023</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.262866197165712</v>
+        <v>0.3697093333333334</v>
       </c>
       <c r="N20">
-        <v>0.262866197165712</v>
+        <v>1.109128</v>
       </c>
       <c r="O20">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="P20">
-        <v>0.002435865656181468</v>
+        <v>0.003345940633597099</v>
       </c>
       <c r="Q20">
-        <v>0.6226106353900723</v>
+        <v>0.08829484564177779</v>
       </c>
       <c r="R20">
-        <v>0.6226106353900723</v>
+        <v>0.7946536107760001</v>
       </c>
       <c r="S20">
-        <v>0.0001737777070745421</v>
+        <v>2.046139947144908E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001737777070745421</v>
+        <v>2.046139947144907E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.36854583093305</v>
+        <v>0.2388223333333333</v>
       </c>
       <c r="H21">
-        <v>2.36854583093305</v>
+        <v>0.716467</v>
       </c>
       <c r="I21">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808024</v>
       </c>
       <c r="J21">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808023</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.42313606799961</v>
+        <v>1.429428</v>
       </c>
       <c r="N21">
-        <v>1.42313606799961</v>
+        <v>4.288284</v>
       </c>
       <c r="O21">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="P21">
-        <v>0.0131875772141522</v>
+        <v>0.01293659855670788</v>
       </c>
       <c r="Q21">
-        <v>3.37076300071093</v>
+        <v>0.341379330292</v>
       </c>
       <c r="R21">
-        <v>3.37076300071093</v>
+        <v>3.072413972628</v>
       </c>
       <c r="S21">
-        <v>0.0009408182772018681</v>
+        <v>7.911106019415569E-05</v>
       </c>
       <c r="T21">
-        <v>0.0009408182772018681</v>
+        <v>7.911106019415567E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.36854583093305</v>
+        <v>0.2388223333333333</v>
       </c>
       <c r="H22">
-        <v>2.36854583093305</v>
+        <v>0.716467</v>
       </c>
       <c r="I22">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808024</v>
       </c>
       <c r="J22">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808023</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.5233599269981</v>
+        <v>24.96348666666667</v>
       </c>
       <c r="N22">
-        <v>23.5233599269981</v>
+        <v>74.89046</v>
       </c>
       <c r="O22">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="P22">
-        <v>0.2179806501634292</v>
+        <v>0.2259243596616244</v>
       </c>
       <c r="Q22">
-        <v>55.71615608462893</v>
+        <v>5.961838133868889</v>
       </c>
       <c r="R22">
-        <v>55.71615608462893</v>
+        <v>53.65654320482</v>
       </c>
       <c r="S22">
-        <v>0.01555101262497402</v>
+        <v>0.001381593124202597</v>
       </c>
       <c r="T22">
-        <v>0.01555101262497402</v>
+        <v>0.001381593124202597</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.36854583093305</v>
+        <v>0.2388223333333333</v>
       </c>
       <c r="H23">
-        <v>2.36854583093305</v>
+        <v>0.716467</v>
       </c>
       <c r="I23">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808024</v>
       </c>
       <c r="J23">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808023</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.7266565056829</v>
+        <v>33.981804</v>
       </c>
       <c r="N23">
-        <v>33.7266565056829</v>
+        <v>101.945412</v>
       </c>
       <c r="O23">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027565</v>
       </c>
       <c r="P23">
-        <v>0.3125301205169116</v>
+        <v>0.3075418675027564</v>
       </c>
       <c r="Q23">
-        <v>79.88313165784625</v>
+        <v>8.115613722156001</v>
       </c>
       <c r="R23">
-        <v>79.88313165784625</v>
+        <v>73.040523499404</v>
       </c>
       <c r="S23">
-        <v>0.0222962902725507</v>
+        <v>0.001880707906764105</v>
       </c>
       <c r="T23">
-        <v>0.0222962902725507</v>
+        <v>0.001880707906764104</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.36854583093305</v>
+        <v>0.2388223333333333</v>
       </c>
       <c r="H24">
-        <v>2.36854583093305</v>
+        <v>0.716467</v>
       </c>
       <c r="I24">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808024</v>
       </c>
       <c r="J24">
-        <v>0.07134125259886497</v>
+        <v>0.006115290649808023</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.2899553247551</v>
+        <v>48.95513033333333</v>
       </c>
       <c r="N24">
-        <v>48.2899553247551</v>
+        <v>146.865391</v>
       </c>
       <c r="O24">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="P24">
-        <v>0.4474818176791108</v>
+        <v>0.4430533530990342</v>
       </c>
       <c r="Q24">
-        <v>114.3769723603919</v>
+        <v>11.69157845484411</v>
       </c>
       <c r="R24">
-        <v>114.3769723603919</v>
+        <v>105.224206093597</v>
       </c>
       <c r="S24">
-        <v>0.03192391338844468</v>
+        <v>0.002709400027572617</v>
       </c>
       <c r="T24">
-        <v>0.03192391338844468</v>
+        <v>0.002709400027572616</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2388223333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.716467</v>
+      </c>
+      <c r="I25">
+        <v>0.006115290649808024</v>
+      </c>
+      <c r="J25">
+        <v>0.006115290649808023</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7953290000000001</v>
+      </c>
+      <c r="N25">
+        <v>2.385987</v>
+      </c>
+      <c r="O25">
+        <v>0.007197880546279998</v>
+      </c>
+      <c r="P25">
+        <v>0.007197880546279996</v>
+      </c>
+      <c r="Q25">
+        <v>0.1899423275476667</v>
+      </c>
+      <c r="R25">
+        <v>1.709480947929</v>
+      </c>
+      <c r="S25">
+        <v>4.401713160310115E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.401713160310113E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.413576</v>
+      </c>
+      <c r="H26">
+        <v>7.240728000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.06180208751582859</v>
+      </c>
+      <c r="J26">
+        <v>0.06180208751582858</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3697093333333334</v>
+      </c>
+      <c r="N26">
+        <v>1.109128</v>
+      </c>
+      <c r="O26">
+        <v>0.003345940633597099</v>
+      </c>
+      <c r="P26">
+        <v>0.003345940633597099</v>
+      </c>
+      <c r="Q26">
+        <v>0.8923215739093336</v>
+      </c>
+      <c r="R26">
+        <v>8.030894165184002</v>
+      </c>
+      <c r="S26">
+        <v>0.0002067861158603349</v>
+      </c>
+      <c r="T26">
+        <v>0.0002067861158603348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.413576</v>
+      </c>
+      <c r="H27">
+        <v>7.240728000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.06180208751582859</v>
+      </c>
+      <c r="J27">
+        <v>0.06180208751582858</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.429428</v>
+      </c>
+      <c r="N27">
+        <v>4.288284</v>
+      </c>
+      <c r="O27">
+        <v>0.01293659855670788</v>
+      </c>
+      <c r="P27">
+        <v>0.01293659855670788</v>
+      </c>
+      <c r="Q27">
+        <v>3.450033114528</v>
+      </c>
+      <c r="R27">
+        <v>31.050298030752</v>
+      </c>
+      <c r="S27">
+        <v>0.0007995087961588023</v>
+      </c>
+      <c r="T27">
+        <v>0.0007995087961588022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.413576</v>
+      </c>
+      <c r="H28">
+        <v>7.240728000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.06180208751582859</v>
+      </c>
+      <c r="J28">
+        <v>0.06180208751582858</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>24.96348666666667</v>
+      </c>
+      <c r="N28">
+        <v>74.89046</v>
+      </c>
+      <c r="O28">
+        <v>0.2259243596616244</v>
+      </c>
+      <c r="P28">
+        <v>0.2259243596616244</v>
+      </c>
+      <c r="Q28">
+        <v>60.25127229498668</v>
+      </c>
+      <c r="R28">
+        <v>542.26145065488</v>
+      </c>
+      <c r="S28">
+        <v>0.01396259704776525</v>
+      </c>
+      <c r="T28">
+        <v>0.01396259704776524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.413576</v>
+      </c>
+      <c r="H29">
+        <v>7.240728000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.06180208751582859</v>
+      </c>
+      <c r="J29">
+        <v>0.06180208751582858</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>33.981804</v>
+      </c>
+      <c r="N29">
+        <v>101.945412</v>
+      </c>
+      <c r="O29">
+        <v>0.3075418675027565</v>
+      </c>
+      <c r="P29">
+        <v>0.3075418675027564</v>
+      </c>
+      <c r="Q29">
+        <v>82.01766657110402</v>
+      </c>
+      <c r="R29">
+        <v>738.1589991399361</v>
+      </c>
+      <c r="S29">
+        <v>0.01900672941018671</v>
+      </c>
+      <c r="T29">
+        <v>0.01900672941018671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.413576</v>
+      </c>
+      <c r="H30">
+        <v>7.240728000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.06180208751582859</v>
+      </c>
+      <c r="J30">
+        <v>0.06180208751582858</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>48.95513033333333</v>
+      </c>
+      <c r="N30">
+        <v>146.865391</v>
+      </c>
+      <c r="O30">
+        <v>0.4430533530990342</v>
+      </c>
+      <c r="P30">
+        <v>0.4430533530990342</v>
+      </c>
+      <c r="Q30">
+        <v>118.1569276494053</v>
+      </c>
+      <c r="R30">
+        <v>1063.412348844648</v>
+      </c>
+      <c r="S30">
+        <v>0.02738162210240782</v>
+      </c>
+      <c r="T30">
+        <v>0.02738162210240781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.413576</v>
+      </c>
+      <c r="H31">
+        <v>7.240728000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.06180208751582859</v>
+      </c>
+      <c r="J31">
+        <v>0.06180208751582858</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7953290000000001</v>
+      </c>
+      <c r="N31">
+        <v>2.385987</v>
+      </c>
+      <c r="O31">
+        <v>0.007197880546279998</v>
+      </c>
+      <c r="P31">
+        <v>0.007197880546279996</v>
+      </c>
+      <c r="Q31">
+        <v>1.919586986504001</v>
+      </c>
+      <c r="R31">
+        <v>17.276282878536</v>
+      </c>
+      <c r="S31">
+        <v>0.0004448440434496765</v>
+      </c>
+      <c r="T31">
+        <v>0.0004448440434496764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.501438333333333</v>
+      </c>
+      <c r="H32">
+        <v>7.504315</v>
+      </c>
+      <c r="I32">
+        <v>0.06405189262410425</v>
+      </c>
+      <c r="J32">
+        <v>0.06405189262410424</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3697093333333334</v>
+      </c>
+      <c r="N32">
+        <v>1.109128</v>
+      </c>
+      <c r="O32">
+        <v>0.003345940633597099</v>
+      </c>
+      <c r="P32">
+        <v>0.003345940633597099</v>
+      </c>
+      <c r="Q32">
+        <v>0.9248050985911112</v>
+      </c>
+      <c r="R32">
+        <v>8.323245887320001</v>
+      </c>
+      <c r="S32">
+        <v>0.0002143138301897888</v>
+      </c>
+      <c r="T32">
+        <v>0.0002143138301897887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.501438333333333</v>
+      </c>
+      <c r="H33">
+        <v>7.504315</v>
+      </c>
+      <c r="I33">
+        <v>0.06405189262410425</v>
+      </c>
+      <c r="J33">
+        <v>0.06405189262410424</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.429428</v>
+      </c>
+      <c r="N33">
+        <v>4.288284</v>
+      </c>
+      <c r="O33">
+        <v>0.01293659855670788</v>
+      </c>
+      <c r="P33">
+        <v>0.01293659855670788</v>
+      </c>
+      <c r="Q33">
+        <v>3.57562599394</v>
+      </c>
+      <c r="R33">
+        <v>32.18063394546</v>
+      </c>
+      <c r="S33">
+        <v>0.0008286136216753953</v>
+      </c>
+      <c r="T33">
+        <v>0.0008286136216753952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.501438333333333</v>
+      </c>
+      <c r="H34">
+        <v>7.504315</v>
+      </c>
+      <c r="I34">
+        <v>0.06405189262410425</v>
+      </c>
+      <c r="J34">
+        <v>0.06405189262410424</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>24.96348666666667</v>
+      </c>
+      <c r="N34">
+        <v>74.89046</v>
+      </c>
+      <c r="O34">
+        <v>0.2259243596616244</v>
+      </c>
+      <c r="P34">
+        <v>0.2259243596616244</v>
+      </c>
+      <c r="Q34">
+        <v>62.44462248165556</v>
+      </c>
+      <c r="R34">
+        <v>562.0016023349</v>
+      </c>
+      <c r="S34">
+        <v>0.01447088282621588</v>
+      </c>
+      <c r="T34">
+        <v>0.01447088282621587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.36854583093305</v>
-      </c>
-      <c r="H25">
-        <v>2.36854583093305</v>
-      </c>
-      <c r="I25">
-        <v>0.07134125259886497</v>
-      </c>
-      <c r="J25">
-        <v>0.07134125259886497</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.688925347419073</v>
-      </c>
-      <c r="N25">
-        <v>0.688925347419073</v>
-      </c>
-      <c r="O25">
-        <v>0.006383968770214701</v>
-      </c>
-      <c r="P25">
-        <v>0.006383968770214701</v>
-      </c>
-      <c r="Q25">
-        <v>1.631751259453548</v>
-      </c>
-      <c r="R25">
-        <v>1.631751259453548</v>
-      </c>
-      <c r="S25">
-        <v>0.0004554403286191523</v>
-      </c>
-      <c r="T25">
-        <v>0.0004554403286191523</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.501438333333333</v>
+      </c>
+      <c r="H35">
+        <v>7.504315</v>
+      </c>
+      <c r="I35">
+        <v>0.06405189262410425</v>
+      </c>
+      <c r="J35">
+        <v>0.06405189262410424</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>33.981804</v>
+      </c>
+      <c r="N35">
+        <v>101.945412</v>
+      </c>
+      <c r="O35">
+        <v>0.3075418675027565</v>
+      </c>
+      <c r="P35">
+        <v>0.3075418675027564</v>
+      </c>
+      <c r="Q35">
+        <v>85.00338716142001</v>
+      </c>
+      <c r="R35">
+        <v>765.03048445278</v>
+      </c>
+      <c r="S35">
+        <v>0.01969863867470305</v>
+      </c>
+      <c r="T35">
+        <v>0.01969863867470305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.501438333333333</v>
+      </c>
+      <c r="H36">
+        <v>7.504315</v>
+      </c>
+      <c r="I36">
+        <v>0.06405189262410425</v>
+      </c>
+      <c r="J36">
+        <v>0.06405189262410424</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>48.95513033333333</v>
+      </c>
+      <c r="N36">
+        <v>146.865391</v>
+      </c>
+      <c r="O36">
+        <v>0.4430533530990342</v>
+      </c>
+      <c r="P36">
+        <v>0.4430533530990342</v>
+      </c>
+      <c r="Q36">
+        <v>122.4582396291294</v>
+      </c>
+      <c r="R36">
+        <v>1102.124156662165</v>
+      </c>
+      <c r="S36">
+        <v>0.02837840579944869</v>
+      </c>
+      <c r="T36">
+        <v>0.02837840579944868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.501438333333333</v>
+      </c>
+      <c r="H37">
+        <v>7.504315</v>
+      </c>
+      <c r="I37">
+        <v>0.06405189262410425</v>
+      </c>
+      <c r="J37">
+        <v>0.06405189262410424</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7953290000000001</v>
+      </c>
+      <c r="N37">
+        <v>2.385987</v>
+      </c>
+      <c r="O37">
+        <v>0.007197880546279998</v>
+      </c>
+      <c r="P37">
+        <v>0.007197880546279996</v>
+      </c>
+      <c r="Q37">
+        <v>1.989466448211667</v>
+      </c>
+      <c r="R37">
+        <v>17.905198033905</v>
+      </c>
+      <c r="S37">
+        <v>0.0004610378718714553</v>
+      </c>
+      <c r="T37">
+        <v>0.0004610378718714551</v>
       </c>
     </row>
   </sheetData>
